--- a/cwp_Statistics.xlsx
+++ b/cwp_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final Year Projects\Waters\MainData\CWP_Mega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D4DB9-D8B1-4CBF-AEE6-1A83409AE767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A411BF-453C-4A52-AFFE-79A0750AF0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="0" windowWidth="8415" windowHeight="10905" xr2:uid="{82AB65C8-1121-4B5B-9E8B-0FF2D5EA1E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{82AB65C8-1121-4B5B-9E8B-0FF2D5EA1E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>stdETa</t>
   </si>
   <si>
-    <t>Yield(kg/ha)</t>
-  </si>
-  <si>
     <t>CWP</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>Long Season Statistics</t>
+  </si>
+  <si>
+    <t>Yield(t/ha)</t>
   </si>
 </sst>
 </file>
@@ -125,17 +125,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -153,6 +153,3518 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Short Season CWP and Maize Yields</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16305555555555556"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yield(t/ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7763663569129502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2073429222127601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0526289428370204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2155660548490101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1213593418683101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E56-4509-A0CF-C2022C4105C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CWP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7301356625046802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2336276726395199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5152035737230598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9607664451789901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4068425987283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E56-4509-A0CF-C2022C4105C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="573153248"/>
+        <c:axId val="573153968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="573153248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573153968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573153968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573153248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Yearly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>  short season Variations </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stdETa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.1292834895103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2278227668935102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9429875675789496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8379846298331692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.394163715452599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BB3-42E3-A9CB-1A5BF87D4AAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CWP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7301356625046802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2336276726395199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5152035737230598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9607664451789901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4068425987283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7BB3-42E3-A9CB-1A5BF87D4AAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="173"/>
+        <c:overlap val="-20"/>
+        <c:axId val="593053520"/>
+        <c:axId val="593053880"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yield(t/ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7763663569129502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2073429222127601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0526289428370204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2155660548490101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1213593418683101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BB3-42E3-A9CB-1A5BF87D4AAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="365"/>
+        <c:overlap val="-20"/>
+        <c:axId val="578458384"/>
+        <c:axId val="578461624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="593053520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593053880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593053880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593053520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578461624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578458384"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="578458384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="578461624"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Yearly  Long season Variations </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stdETa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$12:$B$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$12:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.697871629009001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.2824600013859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.002516215108098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.3235632350004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.466750936209998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E1A-4476-98A0-9B7177167580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="107"/>
+        <c:overlap val="-13"/>
+        <c:axId val="593047040"/>
+        <c:axId val="593039480"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yield(t/ha)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$12:$B$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2719726957413298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7555000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6265532983310398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.33608894878643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2225197361031599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E1A-4476-98A0-9B7177167580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CWP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$12:$B$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Year</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$12:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.21365683880689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2101800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3724128421893704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4435458054303503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8813324153663196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5E1A-4476-98A0-9B7177167580}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="85"/>
+        <c:overlap val="-100"/>
+        <c:axId val="136692352"/>
+        <c:axId val="137042872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="593047040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593039480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593039480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593047040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="137042872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136692352"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="136692352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137042872"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F192AF9D-E261-A8B2-E25E-706349CEB81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66465490-7A8C-AF2D-9C41-3408B8DF3792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9657E192-CDB8-47C2-2D0F-859F353B1405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,8 +3966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467C154-1250-4C1A-A4E9-478A5B006ABA}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +3977,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -485,15 +3997,15 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -508,14 +4020,14 @@
         <v>14.1292834895103</v>
       </c>
       <c r="F3">
-        <v>4776.3663569129503</v>
+        <v>4.7763663569129502</v>
       </c>
       <c r="G3">
         <v>6.7301356625046802</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>2019</v>
       </c>
@@ -529,14 +4041,14 @@
         <v>9.2278227668935102</v>
       </c>
       <c r="F4">
-        <v>3207.3429222127602</v>
+        <v>3.2073429222127601</v>
       </c>
       <c r="G4">
         <v>3.2336276726395199</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>2020</v>
       </c>
@@ -550,14 +4062,14 @@
         <v>8.9429875675789496</v>
       </c>
       <c r="F5">
-        <v>5052.6289428370201</v>
+        <v>5.0526289428370204</v>
       </c>
       <c r="G5">
         <v>6.5152035737230598</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6">
         <v>2021</v>
       </c>
@@ -571,14 +4083,14 @@
         <v>9.8379846298331692</v>
       </c>
       <c r="F6">
-        <v>3215.56605484901</v>
+        <v>3.2155660548490101</v>
       </c>
       <c r="G6">
         <v>3.9607664451789901</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7">
         <v>2022</v>
       </c>
@@ -592,23 +4104,23 @@
         <v>26.394163715452599</v>
       </c>
       <c r="F7">
-        <v>3121.3593418683099</v>
+        <v>3.1213593418683101</v>
       </c>
       <c r="G7">
         <v>5.4068425987283</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -621,15 +4133,15 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
+      <c r="A12" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -644,14 +4156,14 @@
         <v>14.697871629009001</v>
       </c>
       <c r="F12">
-        <v>3271.97269574133</v>
+        <v>3.2719726957413298</v>
       </c>
       <c r="G12">
         <v>4.21365683880689</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13">
         <v>2019</v>
       </c>
@@ -665,14 +4177,14 @@
         <v>14.2824600013859</v>
       </c>
       <c r="F13">
-        <v>3755.5</v>
+        <v>3.7555000000000001</v>
       </c>
       <c r="G13">
         <v>5.2101800000000003</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14">
         <v>2020</v>
       </c>
@@ -686,14 +4198,14 @@
         <v>19.002516215108098</v>
       </c>
       <c r="F14">
-        <v>3626.55329833104</v>
+        <v>3.6265532983310398</v>
       </c>
       <c r="G14">
         <v>5.3724128421893704</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15">
         <v>2021</v>
       </c>
@@ -707,14 +4219,14 @@
         <v>18.3235632350004</v>
       </c>
       <c r="F15">
-        <v>3336.0889487864301</v>
+        <v>3.33608894878643</v>
       </c>
       <c r="G15">
         <v>5.4435458054303503</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16">
         <v>2022</v>
       </c>
@@ -728,7 +4240,7 @@
         <v>33.466750936209998</v>
       </c>
       <c r="F16">
-        <v>3222.5197361031601</v>
+        <v>3.2225197361031599</v>
       </c>
       <c r="G16">
         <v>5.8813324153663196</v>
@@ -742,5 +4254,6 @@
     <mergeCell ref="A12:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>